--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E230DB6-C39C-CF40-8FE4-A6A42A14E5C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F018C99-F650-F042-8DE2-D3BC678263AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20960" yWindow="1040" windowWidth="16600" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>Value</t>
   </si>
@@ -525,13 +525,12 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -551,8 +550,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>1735612</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F018C99-F650-F042-8DE2-D3BC678263AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF261A-03F2-CC47-BDAA-BD4D4013658F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20960" yWindow="1040" windowWidth="16600" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>Value</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Pounds</t>
   </si>
   <si>
-    <t>W kite sea bass</t>
-  </si>
-  <si>
     <t>port</t>
   </si>
   <si>
@@ -52,27 +49,9 @@
     <t xml:space="preserve">SANTA BARBARA AREA TOTALS </t>
   </si>
   <si>
-    <t xml:space="preserve"> Albacore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Jack mackerel </t>
-  </si>
-  <si>
-    <t>fiiant Pacific oyster</t>
-  </si>
-  <si>
-    <t>Pctrale sole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Salmon </t>
-  </si>
-  <si>
     <t>Miscellaneous (animal food)</t>
   </si>
   <si>
-    <t>RiiKlish sole</t>
-  </si>
-  <si>
     <t>( alifornia halibut</t>
   </si>
   <si>
@@ -158,6 +137,36 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack mackerel </t>
+  </si>
+  <si>
+    <t>Perch</t>
+  </si>
+  <si>
+    <t>White seabass</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>Giant Pacific oyster</t>
+  </si>
+  <si>
+    <t>Petrale sole</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>English sole</t>
+  </si>
+  <si>
+    <t>California halibut</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -537,10 +546,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -551,10 +560,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>1735612</v>
@@ -565,10 +574,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>433857</v>
@@ -579,10 +588,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>211755</v>
@@ -593,10 +602,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>59020</v>
@@ -607,10 +616,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>43432</v>
@@ -621,10 +630,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>40215</v>
@@ -635,10 +644,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>17080</v>
@@ -649,10 +658,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>16747</v>
@@ -663,7 +672,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>8312</v>
@@ -674,10 +686,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>7158</v>
@@ -688,10 +700,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>6651</v>
@@ -702,10 +714,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2">
         <v>6641</v>
@@ -716,10 +728,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>6580</v>
@@ -730,10 +742,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>6084</v>
@@ -744,10 +756,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2">
         <v>16091</v>
@@ -758,10 +770,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>879623</v>
@@ -772,7 +784,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C3:C16)-C17</f>
@@ -785,10 +797,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>198538</v>
@@ -799,10 +811,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <v>60243</v>
@@ -813,10 +825,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>48465</v>
@@ -827,10 +839,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <v>39216</v>
@@ -841,10 +853,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>33666</v>
@@ -855,10 +867,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
         <v>23347</v>
@@ -869,10 +881,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>19166</v>
@@ -883,10 +895,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <v>17615</v>
@@ -897,10 +909,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>8638</v>
@@ -911,10 +923,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>7728</v>
@@ -925,10 +937,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>7443</v>
@@ -939,10 +951,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
         <v>7986</v>
@@ -953,10 +965,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <v>472051</v>
@@ -967,7 +979,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <f>SUM(C19:C30)-C31</f>
@@ -980,10 +992,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
         <v>129985</v>
@@ -994,10 +1006,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
         <v>21416</v>
@@ -1008,10 +1020,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
         <v>21080</v>
@@ -1022,10 +1034,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2">
         <v>18541</v>
@@ -1036,10 +1048,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
         <v>15870</v>
@@ -1050,10 +1062,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
         <v>14150</v>
@@ -1064,10 +1076,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
         <v>9380</v>
@@ -1078,10 +1090,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2">
         <v>8487</v>
@@ -1092,10 +1104,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2">
         <v>238909</v>
@@ -1107,7 +1119,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5">
         <f>SUM(C33:C40)-C41</f>
@@ -1120,10 +1132,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C43" s="2">
         <v>42384</v>
@@ -1134,10 +1146,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2">
         <v>14182</v>
@@ -1148,10 +1160,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
         <v>10942</v>
@@ -1162,10 +1174,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2">
         <v>10043</v>
@@ -1176,10 +1188,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2">
         <v>9595</v>
@@ -1190,10 +1202,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2">
         <v>9419</v>
@@ -1204,10 +1216,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C49" s="2">
         <v>5431</v>
@@ -1218,10 +1230,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C50" s="2">
         <v>5304</v>
@@ -1232,10 +1244,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C51" s="2">
         <v>8424</v>
@@ -1246,10 +1258,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
         <v>115724</v>
@@ -1260,7 +1272,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C53" s="5">
         <f>SUM(C43:C51)-C52</f>
@@ -1273,10 +1285,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C54" s="2">
         <v>6885</v>
@@ -1287,10 +1299,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2">
         <v>819</v>
@@ -1301,10 +1313,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2">
         <v>7704</v>
@@ -1315,7 +1327,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C57" s="5">
         <f>SUM(C54:C55)-C56</f>
@@ -1328,10 +1340,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2">
         <v>15477</v>
@@ -1342,10 +1354,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C59" s="2">
         <v>6124</v>
@@ -1356,10 +1368,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2">
         <v>21601</v>
@@ -1370,7 +1382,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C61" s="5">
         <f>SUM(C58:C59)-C60</f>
